--- a/run_n_layers_excel.xlsx
+++ b/run_n_layers_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakon\Skole\NMBU_8\INF205\inf205_project_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4A1D19-D362-4D70-A8A7-74DD27B46FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A41F6-AD0D-4E7F-92F4-92546A9EAB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D18845F0-831F-41BC-9420-6E52B1F983B5}"/>
   </bookViews>
@@ -36,78 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Nodes:</t>
-  </si>
-  <si>
-    <t>Execiton time for 151 #layers: 1.01371</t>
-  </si>
-  <si>
-    <t>Execiton time for 201 #layers: 1.72191</t>
-  </si>
-  <si>
-    <t>Execiton time for 251 #layers: 1.74693</t>
-  </si>
-  <si>
-    <t>Execiton time for 301 #layers: 2.64358</t>
-  </si>
-  <si>
-    <t>Execiton time for 351 #layers: 2.68355</t>
-  </si>
-  <si>
-    <t>Execiton time for 401 #layers: 3.33791</t>
-  </si>
-  <si>
-    <t>Execiton time for 451 #layers: 3.32174</t>
-  </si>
-  <si>
-    <t>Execiton time for 501 #layers: 4.07715</t>
-  </si>
-  <si>
-    <t>Execiton time for 551 #layers: 3.83396</t>
-  </si>
-  <si>
-    <t>Execiton time for 601 #layers: 4.46723</t>
-  </si>
-  <si>
-    <t>Execiton time for 651 #layers: 5.09478</t>
-  </si>
-  <si>
-    <t>Execiton time for 701 #layers: 4.87147</t>
-  </si>
-  <si>
-    <t>Execiton time for 751 #layers: 5.0552</t>
-  </si>
-  <si>
-    <t>Execiton time for 801 #layers: 5.42184</t>
-  </si>
-  <si>
-    <t>Execiton time for 851 #layers: 6.27883</t>
-  </si>
-  <si>
-    <t>Execiton time for 901 #layers: 7.11971</t>
-  </si>
-  <si>
-    <t>Execiton time for 951 #layers: 6.52954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execiton time for 1 #layers: </t>
-  </si>
-  <si>
-    <t>0.002623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execiton time for 51 #layers: </t>
-  </si>
-  <si>
-    <t>0.337139</t>
-  </si>
-  <si>
-    <t>Execiton time for 101 #layers:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.669689</t>
   </si>
 </sst>
 </file>
@@ -194,7 +125,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time scaled with layers</a:t>
+              <a:t>RunTime scaled with layers</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -252,98 +183,132 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$1:$A$20</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$1,Sheet1!$A$3,Sheet1!$A$5,Sheet1!$A$7,Sheet1!$A$9,Sheet1!$A$11,Sheet1!$A$13,Sheet1!$A$15,Sheet1!$A$17,Sheet1!$A$19:$A$20)</c:f>
+              <c:f>Sheet1!$A$1:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>201</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>401</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>501</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>601</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>701</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>801</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>901</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$B$20</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$B$1,Sheet1!$B$3,Sheet1!$B$5,Sheet1!$B$7,Sheet1!$B$9,Sheet1!$B$11,Sheet1!$B$13,Sheet1!$B$15,Sheet1!$B$17,Sheet1!$B$19:$B$20)</c:f>
+              <c:f>Sheet1!$B$1:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.6229999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.33713900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.56745</c:v>
+                  <c:v>0.66968899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6926500000000004</c:v>
+                  <c:v>1.0137100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9098899999999999</c:v>
+                  <c:v>1.7219100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6651000000000007</c:v>
+                  <c:v>1.7469300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.693</c:v>
+                  <c:v>2.64358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.6379</c:v>
+                  <c:v>2.6835499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.8825</c:v>
+                  <c:v>3.3379099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.6547</c:v>
+                  <c:v>3.3217400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.440100000000001</c:v>
+                  <c:v>4.0771499999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8339599999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4672299999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0947800000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8714700000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0552000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.4218400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2788300000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.1197100000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,7 +377,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Layers</a:t>
                 </a:r>
               </a:p>
@@ -459,7 +424,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -496,7 +461,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -506,7 +471,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100"/>
                   <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
@@ -525,7 +490,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1"/>
                   </a:solidFill>
@@ -1192,16 +1157,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1526,28 +1491,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB26B3B2-9BE6-4647-AAEF-258BCD8164F2}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2.6229999999999999E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>0.33713900000000002</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -1556,212 +1521,140 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.66968899999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>151</v>
       </c>
       <c r="B4">
-        <v>2.6479300000000001</v>
-      </c>
-      <c r="N4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.0137100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>201</v>
       </c>
       <c r="B5">
-        <v>3.56745</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.7219100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>251</v>
       </c>
       <c r="B6">
-        <v>4.3854600000000001</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.7469300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>301</v>
       </c>
       <c r="B7">
-        <v>5.6926500000000004</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.64358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>351</v>
       </c>
       <c r="B8">
-        <v>6.0355699999999999</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.6835499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>401</v>
       </c>
       <c r="B9">
-        <v>6.9098899999999999</v>
-      </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.3379099999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>451</v>
       </c>
       <c r="B10">
-        <v>7.6662499999999998</v>
-      </c>
-      <c r="N10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.3217400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>501</v>
       </c>
       <c r="B11">
-        <v>8.6651000000000007</v>
-      </c>
-      <c r="N11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.0771499999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>551</v>
       </c>
       <c r="B12">
-        <v>9.8635900000000003</v>
-      </c>
-      <c r="N12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.8339599999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>601</v>
       </c>
       <c r="B13">
-        <v>10.693</v>
-      </c>
-      <c r="N13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.4672299999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>651</v>
       </c>
       <c r="B14">
-        <v>11.5869</v>
-      </c>
-      <c r="N14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.0947800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>701</v>
       </c>
       <c r="B15">
-        <v>12.6379</v>
-      </c>
-      <c r="N15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4.8714700000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>751</v>
       </c>
       <c r="B16">
-        <v>13.017799999999999</v>
-      </c>
-      <c r="N16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.0552000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>801</v>
       </c>
       <c r="B17">
-        <v>13.8825</v>
-      </c>
-      <c r="N17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.4218400000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>851</v>
       </c>
       <c r="B18">
-        <v>14.690899999999999</v>
-      </c>
-      <c r="N18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.2788300000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>901</v>
       </c>
       <c r="B19">
-        <v>15.6547</v>
-      </c>
-      <c r="N19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>951</v>
-      </c>
-      <c r="B20">
-        <v>16.440100000000001</v>
-      </c>
-      <c r="N20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N22" t="s">
-        <v>17</v>
+        <v>7.1197100000000004</v>
       </c>
     </row>
   </sheetData>
